--- a/DateBase/orders/Dang Nguyen_2025-11-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,10 +524,93 @@
       <c r="C11" t="str">
         <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
+      <c r="F11" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F12" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>101_绣球秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+      </c>
+      <c r="F13" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>436_木百合_leucadendron _undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>440_火棘果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>621_康乃馨桃红_undefined_undefined_20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>601_康乃馨大红_red_undefined_20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F18" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>3</v>
+      </c>
+      <c r="C19" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F19" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -585,7 +668,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01015585510580</v>
+        <v>01015585510581030155651081280</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-23.xlsx
@@ -605,7 +605,7 @@
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-23.xlsx
@@ -607,6 +607,9 @@
       <c r="C21" t="str">
         <v>585_洋牡丹红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -668,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01015585510581030155651081280</v>
+        <v>01015585510581030155651081285</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,9 +611,57 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>676_洋牡丹玫红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>752_蝴蝶洋牡丹橙_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L27"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -671,7 +719,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01015585510581030155651081285</v>
+        <v>01015585510581030155651081285555545</v>
       </c>
     </row>
   </sheetData>
